--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_0_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_0_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.237735239192675, 8.835994469498075]</t>
+          <t>[4.353287029620349, 8.720442679070402]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.661718588927499e-08</v>
+        <v>9.504519393743749e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>9.323437177854998e-08</v>
+        <v>1.90090387874875e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.534631846798618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9245792832802344, -1.1446844103170015]</t>
+          <t>[-1.9497371824080805, -1.1195265111891555]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.187938636348917e-13</v>
+        <v>2.543520949416234e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.187938636348917e-13</v>
+        <v>2.543520949416234e-12</v>
       </c>
       <c r="S2" t="n">
         <v>8.982440170791126</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.547069052262508, 10.417811289319744]</t>
+          <t>[7.547360996526498, 10.417519345055753]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.267307307307448</v>
       </c>
       <c r="X2" t="n">
-        <v>4.674794794794898</v>
+        <v>4.572052052052153</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.859819819819998</v>
+        <v>7.962562562562742</v>
       </c>
     </row>
     <row r="3">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.306940542173191, 9.547309386694387]</t>
+          <t>[4.272237551227706, 9.582012377639872]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.740525602591305e-07</v>
+        <v>5.216981566746881e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.740525602591305e-07</v>
+        <v>5.216981566746881e-07</v>
       </c>
       <c r="O3" t="n">
         <v>1.893131909370426</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.42335304820684, 10.510181535122255]</t>
+          <t>[7.422025299811736, 10.51150928351736]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_0_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_0_sawtooth_0_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.353287029620349, 8.720442679070402]</t>
+          <t>[4.294047889459769, 8.779681819230982]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.504519393743749e-09</v>
+        <v>2.209422111931758e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.90090387874875e-08</v>
+        <v>4.418844223863516e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.534631846798618</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9497371824080805, -1.1195265111891555]</t>
+          <t>[-1.9371582328441574, -1.1321054607530785]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.543520949416234e-12</v>
+        <v>5.861977570020827e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>2.543520949416234e-12</v>
+        <v>5.861977570020827e-13</v>
       </c>
       <c r="S2" t="n">
         <v>8.982440170791126</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.547360996526498, 10.417519345055753]</t>
+          <t>[7.548279782703112, 10.41660055887914]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.267307307307448</v>
       </c>
       <c r="X2" t="n">
-        <v>4.572052052052153</v>
+        <v>4.623423423423525</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.962562562562742</v>
+        <v>7.91119119119137</v>
       </c>
     </row>
     <row r="3">
@@ -670,35 +670,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.272237551227706, 9.582012377639872]</t>
+          <t>[4.179806006594012, 9.674443922273566]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>5.216981566746881e-07</v>
+        <v>1.196375277068285e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.216981566746881e-07</v>
+        <v>1.196375277068285e-06</v>
       </c>
       <c r="O3" t="n">
         <v>1.893131909370426</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 2.333395144107734]</t>
+          <t>[1.427710775505271, 2.35855304323558]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>3.019806626980426e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="S3" t="n">
         <v>8.966767291664548</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.422025299811736, 10.51150928351736]</t>
+          <t>[7.421881313596796, 10.5116532697323]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>16.68492492492513</v>
       </c>
       <c r="X3" t="n">
-        <v>15.01165165165184</v>
+        <v>14.91603603603622</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.35819819819843</v>
+        <v>18.45381381381404</v>
       </c>
     </row>
   </sheetData>
